--- a/Nb_menage.xlsx
+++ b/Nb_menage.xlsx
@@ -1718,7 +1718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1729,11 +1729,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2011,13 +2031,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J352"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2063,7 +2081,7 @@
       <c r="C2" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -2095,7 +2113,7 @@
       <c r="C3" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>129</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -2127,7 +2145,7 @@
       <c r="C4" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>54</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -2159,7 +2177,7 @@
       <c r="C5" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>173</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -2191,7 +2209,7 @@
       <c r="C6" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>113</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -2223,7 +2241,7 @@
       <c r="C7" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -2255,7 +2273,7 @@
       <c r="C8" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="10" t="s">
         <v>315</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -2287,7 +2305,7 @@
       <c r="C9" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="10" t="s">
         <v>145</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -2319,7 +2337,7 @@
       <c r="C10" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="10" t="s">
         <v>261</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -2351,7 +2369,7 @@
       <c r="C11" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="10" t="s">
         <v>334</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -2383,7 +2401,7 @@
       <c r="C12" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="10" t="s">
         <v>259</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -2415,7 +2433,7 @@
       <c r="C13" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="10" t="s">
         <v>138</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -2447,7 +2465,7 @@
       <c r="C14" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="10" t="s">
         <v>335</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -2479,7 +2497,7 @@
       <c r="C15" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="10" t="s">
         <v>154</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -2511,7 +2529,7 @@
       <c r="C16" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="10" t="s">
         <v>345</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -2543,7 +2561,7 @@
       <c r="C17" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="10" t="s">
         <v>343</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -2575,7 +2593,7 @@
       <c r="C18" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="10" t="s">
         <v>254</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -2607,7 +2625,7 @@
       <c r="C19" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="10" t="s">
         <v>101</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -2639,7 +2657,7 @@
       <c r="C20" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -2671,7 +2689,7 @@
       <c r="C21" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="10" t="s">
         <v>89</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -2703,7 +2721,7 @@
       <c r="C22" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="10" t="s">
         <v>225</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -2735,7 +2753,7 @@
       <c r="C23" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -2767,7 +2785,7 @@
       <c r="C24" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -2799,7 +2817,7 @@
       <c r="C25" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="10" t="s">
         <v>222</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -2831,7 +2849,7 @@
       <c r="C26" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="10" t="s">
         <v>260</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -2863,7 +2881,7 @@
       <c r="C27" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="10" t="s">
         <v>314</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -2895,7 +2913,7 @@
       <c r="C28" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="10" t="s">
         <v>236</v>
       </c>
       <c r="E28" s="8" t="s">
@@ -2927,7 +2945,7 @@
       <c r="C29" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="10" t="s">
         <v>227</v>
       </c>
       <c r="E29" s="8" t="s">
@@ -2959,7 +2977,7 @@
       <c r="C30" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="10" t="s">
         <v>77</v>
       </c>
       <c r="E30" s="8" t="s">
@@ -2991,7 +3009,7 @@
       <c r="C31" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E31" s="8" t="s">
@@ -3023,7 +3041,7 @@
       <c r="C32" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="10" t="s">
         <v>332</v>
       </c>
       <c r="E32" s="8" t="s">
@@ -3055,7 +3073,7 @@
       <c r="C33" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="10" t="s">
         <v>121</v>
       </c>
       <c r="E33" s="8" t="s">
@@ -3087,7 +3105,7 @@
       <c r="C34" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="10" t="s">
         <v>270</v>
       </c>
       <c r="E34" s="8" t="s">
@@ -3119,7 +3137,7 @@
       <c r="C35" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="10" t="s">
         <v>239</v>
       </c>
       <c r="E35" s="8" t="s">
@@ -3151,7 +3169,7 @@
       <c r="C36" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E36" s="8" t="s">
@@ -3183,7 +3201,7 @@
       <c r="C37" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="10" t="s">
         <v>295</v>
       </c>
       <c r="E37" s="8" t="s">
@@ -3215,7 +3233,7 @@
       <c r="C38" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="10" t="s">
         <v>182</v>
       </c>
       <c r="E38" s="8" t="s">
@@ -3247,7 +3265,7 @@
       <c r="C39" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="10" t="s">
         <v>293</v>
       </c>
       <c r="E39" s="8" t="s">
@@ -3279,7 +3297,7 @@
       <c r="C40" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="10" t="s">
         <v>158</v>
       </c>
       <c r="E40" s="8" t="s">
@@ -3311,7 +3329,7 @@
       <c r="C41" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E41" s="8" t="s">
@@ -3343,7 +3361,7 @@
       <c r="C42" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="10" t="s">
         <v>234</v>
       </c>
       <c r="E42" s="8" t="s">
@@ -3375,7 +3393,7 @@
       <c r="C43" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="10" t="s">
         <v>250</v>
       </c>
       <c r="E43" s="8" t="s">
@@ -3407,7 +3425,7 @@
       <c r="C44" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="10" t="s">
         <v>148</v>
       </c>
       <c r="E44" s="8" t="s">
@@ -3439,7 +3457,7 @@
       <c r="C45" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="10" t="s">
         <v>219</v>
       </c>
       <c r="E45" s="8" t="s">
@@ -3471,7 +3489,7 @@
       <c r="C46" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="10" t="s">
         <v>296</v>
       </c>
       <c r="E46" s="8" t="s">
@@ -3503,7 +3521,7 @@
       <c r="C47" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="10" t="s">
         <v>87</v>
       </c>
       <c r="E47" s="8" t="s">
@@ -3535,7 +3553,7 @@
       <c r="C48" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="10" t="s">
         <v>98</v>
       </c>
       <c r="E48" s="8" t="s">
@@ -3567,7 +3585,7 @@
       <c r="C49" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="10" t="s">
         <v>292</v>
       </c>
       <c r="E49" s="8" t="s">
@@ -3599,7 +3617,7 @@
       <c r="C50" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="10" t="s">
         <v>247</v>
       </c>
       <c r="E50" s="8" t="s">
@@ -3631,7 +3649,7 @@
       <c r="C51" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="10" t="s">
         <v>102</v>
       </c>
       <c r="E51" s="8" t="s">
@@ -3664,7 +3682,7 @@
       <c r="C52" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="10" t="s">
         <v>300</v>
       </c>
       <c r="E52" s="8" t="s">
@@ -3696,7 +3714,7 @@
       <c r="C53" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="8" t="s">
@@ -3728,7 +3746,7 @@
       <c r="C54" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E54" s="8" t="s">
@@ -3760,7 +3778,7 @@
       <c r="C55" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="10" t="s">
         <v>174</v>
       </c>
       <c r="E55" s="8" t="s">
@@ -3792,7 +3810,7 @@
       <c r="C56" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="10" t="s">
         <v>155</v>
       </c>
       <c r="E56" s="8" t="s">
@@ -3824,7 +3842,7 @@
       <c r="C57" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="10" t="s">
         <v>175</v>
       </c>
       <c r="E57" s="8" t="s">
@@ -3856,7 +3874,7 @@
       <c r="C58" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="10" t="s">
         <v>328</v>
       </c>
       <c r="E58" s="8" t="s">
@@ -3888,7 +3906,7 @@
       <c r="C59" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="10" t="s">
         <v>195</v>
       </c>
       <c r="E59" s="8" t="s">
@@ -3920,7 +3938,7 @@
       <c r="C60" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="10" t="s">
         <v>85</v>
       </c>
       <c r="E60" s="8" t="s">
@@ -3952,7 +3970,7 @@
       <c r="C61" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="10" t="s">
         <v>279</v>
       </c>
       <c r="E61" s="8" t="s">
@@ -3982,7 +4000,7 @@
       <c r="C62" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="6" t="s">
         <v>277</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -4008,7 +4026,7 @@
       <c r="C63" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="6" t="s">
         <v>276</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -4034,7 +4052,7 @@
       <c r="C64" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="6" t="s">
         <v>278</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -4060,7 +4078,7 @@
       <c r="C65" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="6" t="s">
         <v>280</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -4079,15 +4097,17 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
+      <c r="A66" s="8">
+        <v>2019</v>
+      </c>
       <c r="B66" s="8" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>275</v>
+        <v>437</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>412</v>
@@ -4099,13 +4119,13 @@
         <v>0</v>
       </c>
       <c r="H66" s="9">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="I66" s="9">
         <v>0</v>
       </c>
       <c r="J66" s="8">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4116,7 +4136,7 @@
       <c r="C67" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="6" t="s">
         <v>281</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4142,7 +4162,7 @@
       <c r="C68" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="6" t="s">
         <v>274</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -4168,7 +4188,7 @@
       <c r="C69" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="6" t="s">
         <v>273</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -4194,7 +4214,7 @@
       <c r="C70" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="6" t="s">
         <v>272</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -4213,15 +4233,17 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
+      <c r="A71" s="8">
+        <v>2019</v>
+      </c>
       <c r="B71" s="8" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>271</v>
+        <v>449</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>412</v>
@@ -4233,13 +4255,13 @@
         <v>0</v>
       </c>
       <c r="H71" s="9">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9">
         <v>0</v>
       </c>
       <c r="J71" s="8">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -4250,7 +4272,7 @@
       <c r="C72" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="6" t="s">
         <v>282</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -4269,15 +4291,17 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
+      <c r="A73" s="8">
+        <v>2019</v>
+      </c>
       <c r="B73" s="8" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>269</v>
+        <v>433</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>288</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>412</v>
@@ -4289,13 +4313,13 @@
         <v>0</v>
       </c>
       <c r="H73" s="9">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I73" s="9">
         <v>0</v>
       </c>
       <c r="J73" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4306,7 +4330,7 @@
       <c r="C74" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="6" t="s">
         <v>268</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -4325,15 +4349,17 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
+      <c r="A75" s="8">
+        <v>2019</v>
+      </c>
       <c r="B75" s="8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>267</v>
+        <v>454</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>412</v>
@@ -4345,13 +4371,13 @@
         <v>0</v>
       </c>
       <c r="H75" s="9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9">
         <v>0</v>
       </c>
       <c r="J75" s="8">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4362,7 +4388,7 @@
       <c r="C76" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="6" t="s">
         <v>283</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -4388,7 +4414,7 @@
       <c r="C77" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="6" t="s">
         <v>266</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -4414,7 +4440,7 @@
       <c r="C78" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="6" t="s">
         <v>265</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -4433,18 +4459,20 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
+      <c r="A79" s="8">
+        <v>2019</v>
+      </c>
       <c r="B79" s="8" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>264</v>
+        <v>453</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>253</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="F79" s="8">
         <v>0</v>
@@ -4453,13 +4481,13 @@
         <v>0</v>
       </c>
       <c r="H79" s="9">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="I79" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J79" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4470,7 +4498,7 @@
       <c r="C80" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="6" t="s">
         <v>263</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -4496,7 +4524,7 @@
       <c r="C81" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="6" t="s">
         <v>262</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -4522,7 +4550,7 @@
       <c r="C82" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="6" t="s">
         <v>284</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -4548,7 +4576,7 @@
       <c r="C83" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="6" t="s">
         <v>285</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -4574,7 +4602,7 @@
       <c r="C84" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="6" t="s">
         <v>286</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -4593,15 +4621,17 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
+      <c r="A85" s="8">
+        <v>2019</v>
+      </c>
       <c r="B85" s="8" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>287</v>
+        <v>462</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>245</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>412</v>
@@ -4613,25 +4643,27 @@
         <v>0</v>
       </c>
       <c r="H85" s="9">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I85" s="9">
         <v>0</v>
       </c>
       <c r="J85" s="8">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
+      <c r="A86" s="8">
+        <v>2019</v>
+      </c>
       <c r="B86" s="8" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>288</v>
+        <v>458</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>412</v>
@@ -4643,13 +4675,13 @@
         <v>0</v>
       </c>
       <c r="H86" s="9">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I86" s="9">
         <v>0</v>
       </c>
       <c r="J86" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4660,7 +4692,7 @@
       <c r="C87" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="6" t="s">
         <v>289</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -4686,7 +4718,7 @@
       <c r="C88" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -4705,15 +4737,17 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
+      <c r="A89" s="8">
+        <v>2019</v>
+      </c>
       <c r="B89" s="8" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>258</v>
+        <v>470</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>412</v>
@@ -4725,13 +4759,13 @@
         <v>0</v>
       </c>
       <c r="H89" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I89" s="9">
         <v>0</v>
       </c>
       <c r="J89" s="8">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4742,7 +4776,7 @@
       <c r="C90" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="6" t="s">
         <v>257</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -4768,7 +4802,7 @@
       <c r="C91" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="6" t="s">
         <v>256</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -4794,7 +4828,7 @@
       <c r="C92" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="6" t="s">
         <v>255</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -4813,18 +4847,20 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
+      <c r="A93" s="8">
+        <v>2019</v>
+      </c>
       <c r="B93" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>253</v>
+        <v>429</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>299</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="F93" s="8">
         <v>0</v>
@@ -4833,13 +4869,13 @@
         <v>0</v>
       </c>
       <c r="H93" s="9">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="I93" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J93" s="8">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4850,7 +4886,7 @@
       <c r="C94" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="6" t="s">
         <v>252</v>
       </c>
       <c r="E94" s="1" t="s">
@@ -4876,7 +4912,7 @@
       <c r="C95" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="6" t="s">
         <v>251</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -4902,7 +4938,7 @@
       <c r="C96" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="6" t="s">
         <v>249</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -4928,7 +4964,7 @@
       <c r="C97" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="6" t="s">
         <v>248</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -4954,7 +4990,7 @@
       <c r="C98" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="6" t="s">
         <v>246</v>
       </c>
       <c r="E98" s="1" t="s">
@@ -4973,15 +5009,17 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
+      <c r="A99" s="8">
+        <v>2019</v>
+      </c>
       <c r="B99" s="8" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>245</v>
+        <v>449</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>412</v>
@@ -4993,13 +5031,13 @@
         <v>0</v>
       </c>
       <c r="H99" s="9">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="I99" s="9">
         <v>0</v>
       </c>
       <c r="J99" s="8">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5010,7 +5048,7 @@
       <c r="C100" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="6" t="s">
         <v>244</v>
       </c>
       <c r="E100" s="1" t="s">
@@ -5036,7 +5074,7 @@
       <c r="C101" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="6" t="s">
         <v>243</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -5062,7 +5100,7 @@
       <c r="C102" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="6" t="s">
         <v>291</v>
       </c>
       <c r="E102" s="1" t="s">
@@ -5088,7 +5126,7 @@
       <c r="C103" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="6" t="s">
         <v>242</v>
       </c>
       <c r="E103" s="1" t="s">
@@ -5114,7 +5152,7 @@
       <c r="C104" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="6" t="s">
         <v>241</v>
       </c>
       <c r="E104" s="1" t="s">
@@ -5133,18 +5171,20 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
+      <c r="A105" s="8">
+        <v>2019</v>
+      </c>
       <c r="B105" s="8" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>240</v>
+        <v>444</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="F105" s="8">
         <v>0</v>
@@ -5153,13 +5193,13 @@
         <v>0</v>
       </c>
       <c r="H105" s="9">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I105" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J105" s="8">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5170,7 +5210,7 @@
       <c r="C106" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="6" t="s">
         <v>238</v>
       </c>
       <c r="E106" s="1" t="s">
@@ -5196,7 +5236,7 @@
       <c r="C107" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="6" t="s">
         <v>237</v>
       </c>
       <c r="E107" s="1" t="s">
@@ -5222,7 +5262,7 @@
       <c r="C108" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="6" t="s">
         <v>235</v>
       </c>
       <c r="E108" s="1" t="s">
@@ -5248,7 +5288,7 @@
       <c r="C109" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="6" t="s">
         <v>235</v>
       </c>
       <c r="E109" s="1" t="s">
@@ -5274,7 +5314,7 @@
       <c r="C110" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="6" t="s">
         <v>233</v>
       </c>
       <c r="E110" s="1" t="s">
@@ -5300,7 +5340,7 @@
       <c r="C111" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="6" t="s">
         <v>232</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -5326,7 +5366,7 @@
       <c r="C112" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="6" t="s">
         <v>231</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -5352,7 +5392,7 @@
       <c r="C113" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="6" t="s">
         <v>230</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -5378,7 +5418,7 @@
       <c r="C114" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="6" t="s">
         <v>229</v>
       </c>
       <c r="E114" s="1" t="s">
@@ -5404,7 +5444,7 @@
       <c r="C115" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="6" t="s">
         <v>228</v>
       </c>
       <c r="E115" s="1" t="s">
@@ -5430,7 +5470,7 @@
       <c r="C116" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="6" t="s">
         <v>226</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -5456,7 +5496,7 @@
       <c r="C117" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="6" t="s">
         <v>224</v>
       </c>
       <c r="E117" s="1" t="s">
@@ -5482,7 +5522,7 @@
       <c r="C118" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="6" t="s">
         <v>294</v>
       </c>
       <c r="E118" s="1" t="s">
@@ -5508,7 +5548,7 @@
       <c r="C119" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="6" t="s">
         <v>223</v>
       </c>
       <c r="E119" s="1" t="s">
@@ -5534,7 +5574,7 @@
       <c r="C120" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="6" t="s">
         <v>221</v>
       </c>
       <c r="E120" s="1" t="s">
@@ -5560,7 +5600,7 @@
       <c r="C121" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="6" t="s">
         <v>220</v>
       </c>
       <c r="E121" s="1" t="s">
@@ -5586,7 +5626,7 @@
       <c r="C122" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="6" t="s">
         <v>218</v>
       </c>
       <c r="E122" s="1" t="s">
@@ -5612,7 +5652,7 @@
       <c r="C123" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="6" t="s">
         <v>217</v>
       </c>
       <c r="E123" s="1" t="s">
@@ -5638,7 +5678,7 @@
       <c r="C124" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="6" t="s">
         <v>216</v>
       </c>
       <c r="E124" s="1" t="s">
@@ -5664,7 +5704,7 @@
       <c r="C125" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="6" t="s">
         <v>215</v>
       </c>
       <c r="E125" s="1" t="s">
@@ -5690,7 +5730,7 @@
       <c r="C126" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="6" t="s">
         <v>214</v>
       </c>
       <c r="E126" s="1" t="s">
@@ -5716,7 +5756,7 @@
       <c r="C127" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="6" t="s">
         <v>297</v>
       </c>
       <c r="E127" s="1" t="s">
@@ -5742,7 +5782,7 @@
       <c r="C128" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="6" t="s">
         <v>213</v>
       </c>
       <c r="E128" s="1" t="s">
@@ -5761,15 +5801,17 @@
       </c>
     </row>
     <row r="129" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="8"/>
+      <c r="A129" s="8">
+        <v>2019</v>
+      </c>
       <c r="B129" s="8" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>212</v>
+        <v>454</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>302</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>412</v>
@@ -5781,13 +5823,13 @@
         <v>0</v>
       </c>
       <c r="H129" s="9">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I129" s="9">
         <v>0</v>
       </c>
       <c r="J129" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5798,7 +5840,7 @@
       <c r="C130" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="6" t="s">
         <v>211</v>
       </c>
       <c r="E130" s="1" t="s">
@@ -5824,7 +5866,7 @@
       <c r="C131" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="6" t="s">
         <v>210</v>
       </c>
       <c r="E131" s="1" t="s">
@@ -5850,7 +5892,7 @@
       <c r="C132" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="6" t="s">
         <v>209</v>
       </c>
       <c r="E132" s="1" t="s">
@@ -5869,15 +5911,17 @@
       </c>
     </row>
     <row r="133" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="8"/>
+      <c r="A133" s="8">
+        <v>2019</v>
+      </c>
       <c r="B133" s="8" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>208</v>
+        <v>458</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="E133" s="8" t="s">
         <v>412</v>
@@ -5889,13 +5933,13 @@
         <v>0</v>
       </c>
       <c r="H133" s="9">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I133" s="9">
         <v>0</v>
       </c>
       <c r="J133" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5906,7 +5950,7 @@
       <c r="C134" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="6" t="s">
         <v>207</v>
       </c>
       <c r="E134" s="1" t="s">
@@ -5932,7 +5976,7 @@
       <c r="C135" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="6" t="s">
         <v>206</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -5958,7 +6002,7 @@
       <c r="C136" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="6" t="s">
         <v>348</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -5984,7 +6028,7 @@
       <c r="C137" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" s="6" t="s">
         <v>298</v>
       </c>
       <c r="E137" s="1" t="s">
@@ -6003,15 +6047,17 @@
       </c>
     </row>
     <row r="138" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="8"/>
+      <c r="A138" s="8">
+        <v>2019</v>
+      </c>
       <c r="B138" s="8" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>205</v>
+        <v>439</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>412</v>
@@ -6023,13 +6069,13 @@
         <v>0</v>
       </c>
       <c r="H138" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I138" s="9">
         <v>0</v>
       </c>
       <c r="J138" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6040,7 +6086,7 @@
       <c r="C139" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" s="6" t="s">
         <v>204</v>
       </c>
       <c r="E139" s="1" t="s">
@@ -6059,15 +6105,17 @@
       </c>
     </row>
     <row r="140" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="8"/>
+      <c r="A140" s="8">
+        <v>2019</v>
+      </c>
       <c r="B140" s="8" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>299</v>
+        <v>475</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>412</v>
@@ -6079,28 +6127,30 @@
         <v>0</v>
       </c>
       <c r="H140" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I140" s="9">
         <v>0</v>
       </c>
       <c r="J140" s="8">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="8"/>
+      <c r="A141" s="8">
+        <v>2019</v>
+      </c>
       <c r="B141" s="8" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>203</v>
+        <v>480</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="F141" s="8">
         <v>0</v>
@@ -6109,13 +6159,13 @@
         <v>0</v>
       </c>
       <c r="H141" s="9">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="I141" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J141" s="8">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6126,7 +6176,7 @@
       <c r="C142" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" s="6" t="s">
         <v>202</v>
       </c>
       <c r="E142" s="1" t="s">
@@ -6152,7 +6202,7 @@
       <c r="C143" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" s="6" t="s">
         <v>201</v>
       </c>
       <c r="E143" s="1" t="s">
@@ -6178,7 +6228,7 @@
       <c r="C144" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="6" t="s">
         <v>200</v>
       </c>
       <c r="E144" s="1" t="s">
@@ -6197,18 +6247,20 @@
       </c>
     </row>
     <row r="145" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="8"/>
+      <c r="A145" s="8">
+        <v>2019</v>
+      </c>
       <c r="B145" s="8" t="s">
         <v>448</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>199</v>
+        <v>472</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>479</v>
+        <v>412</v>
       </c>
       <c r="F145" s="8">
         <v>0</v>
@@ -6217,10 +6269,10 @@
         <v>0</v>
       </c>
       <c r="H145" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I145" s="9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J145" s="8">
         <v>7</v>
@@ -6234,7 +6286,7 @@
       <c r="C146" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" s="6" t="s">
         <v>198</v>
       </c>
       <c r="E146" s="1" t="s">
@@ -6260,7 +6312,7 @@
       <c r="C147" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" s="6" t="s">
         <v>197</v>
       </c>
       <c r="E147" s="1" t="s">
@@ -6286,7 +6338,7 @@
       <c r="C148" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" s="6" t="s">
         <v>196</v>
       </c>
       <c r="E148" s="1" t="s">
@@ -6312,7 +6364,7 @@
       <c r="C149" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="6" t="s">
         <v>194</v>
       </c>
       <c r="E149" s="1" t="s">
@@ -6338,7 +6390,7 @@
       <c r="C150" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="6" t="s">
         <v>193</v>
       </c>
       <c r="E150" s="1" t="s">
@@ -6364,7 +6416,7 @@
       <c r="C151" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="6" t="s">
         <v>192</v>
       </c>
       <c r="E151" s="1" t="s">
@@ -6390,7 +6442,7 @@
       <c r="C152" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" s="6" t="s">
         <v>191</v>
       </c>
       <c r="E152" s="1" t="s">
@@ -6416,7 +6468,7 @@
       <c r="C153" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="6" t="s">
         <v>190</v>
       </c>
       <c r="E153" s="1" t="s">
@@ -6442,7 +6494,7 @@
       <c r="C154" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" s="6" t="s">
         <v>189</v>
       </c>
       <c r="E154" s="1" t="s">
@@ -6468,7 +6520,7 @@
       <c r="C155" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" s="6" t="s">
         <v>188</v>
       </c>
       <c r="E155" s="1" t="s">
@@ -6494,7 +6546,7 @@
       <c r="C156" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="6" t="s">
         <v>187</v>
       </c>
       <c r="E156" s="1" t="s">
@@ -6520,7 +6572,7 @@
       <c r="C157" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="6" t="s">
         <v>186</v>
       </c>
       <c r="E157" s="1" t="s">
@@ -6539,18 +6591,20 @@
       </c>
     </row>
     <row r="158" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="8"/>
+      <c r="A158" s="8">
+        <v>2019</v>
+      </c>
       <c r="B158" s="8" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>185</v>
+        <v>449</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="F158" s="8">
         <v>0</v>
@@ -6559,28 +6613,30 @@
         <v>0</v>
       </c>
       <c r="H158" s="9">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I158" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J158" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="8"/>
+      <c r="A159" s="8">
+        <v>2019</v>
+      </c>
       <c r="B159" s="8" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>184</v>
+        <v>454</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>412</v>
+        <v>492</v>
       </c>
       <c r="F159" s="8">
         <v>0</v>
@@ -6589,13 +6645,13 @@
         <v>0</v>
       </c>
       <c r="H159" s="9">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I159" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J159" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6606,7 +6662,7 @@
       <c r="C160" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" s="6" t="s">
         <v>183</v>
       </c>
       <c r="E160" s="1" t="s">
@@ -6632,7 +6688,7 @@
       <c r="C161" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="6" t="s">
         <v>301</v>
       </c>
       <c r="E161" s="1" t="s">
@@ -6651,15 +6707,17 @@
       </c>
     </row>
     <row r="162" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="8"/>
+      <c r="A162" s="8">
+        <v>2019</v>
+      </c>
       <c r="B162" s="8" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>302</v>
+        <v>429</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>412</v>
@@ -6671,25 +6729,27 @@
         <v>0</v>
       </c>
       <c r="H162" s="9">
+        <v>6</v>
+      </c>
+      <c r="I162" s="9">
+        <v>0</v>
+      </c>
+      <c r="J162" s="8">
         <v>9</v>
       </c>
-      <c r="I162" s="9">
-        <v>0</v>
-      </c>
-      <c r="J162" s="8">
-        <v>3</v>
-      </c>
     </row>
     <row r="163" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="8"/>
+      <c r="A163" s="8">
+        <v>2019</v>
+      </c>
       <c r="B163" s="8" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>181</v>
+        <v>437</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="E163" s="8" t="s">
         <v>412</v>
@@ -6701,13 +6761,13 @@
         <v>0</v>
       </c>
       <c r="H163" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I163" s="9">
         <v>0</v>
       </c>
       <c r="J163" s="8">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6718,7 +6778,7 @@
       <c r="C164" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" s="6" t="s">
         <v>303</v>
       </c>
       <c r="E164" s="1" t="s">
@@ -6744,7 +6804,7 @@
       <c r="C165" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" s="6" t="s">
         <v>170</v>
       </c>
       <c r="E165" s="1" t="s">
@@ -6763,15 +6823,17 @@
       </c>
     </row>
     <row r="166" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="8"/>
+      <c r="A166" s="8">
+        <v>2019</v>
+      </c>
       <c r="B166" s="8" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>180</v>
+        <v>447</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="E166" s="8" t="s">
         <v>412</v>
@@ -6783,13 +6845,13 @@
         <v>0</v>
       </c>
       <c r="H166" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I166" s="9">
         <v>0</v>
       </c>
       <c r="J166" s="8">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6800,7 +6862,7 @@
       <c r="C167" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D167" s="6" t="s">
         <v>179</v>
       </c>
       <c r="E167" s="1" t="s">
@@ -6826,7 +6888,7 @@
       <c r="C168" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D168" s="6" t="s">
         <v>178</v>
       </c>
       <c r="E168" s="1" t="s">
@@ -6852,7 +6914,7 @@
       <c r="C169" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" s="6" t="s">
         <v>177</v>
       </c>
       <c r="E169" s="1" t="s">
@@ -6878,7 +6940,7 @@
       <c r="C170" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D170" s="6" t="s">
         <v>176</v>
       </c>
       <c r="E170" s="1" t="s">
@@ -6897,15 +6959,17 @@
       </c>
     </row>
     <row r="171" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="8"/>
+      <c r="A171" s="8">
+        <v>2019</v>
+      </c>
       <c r="B171" s="8" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="D171" s="8" t="s">
-        <v>304</v>
+        <v>475</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="E171" s="8" t="s">
         <v>412</v>
@@ -6917,13 +6981,13 @@
         <v>0</v>
       </c>
       <c r="H171" s="9">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I171" s="9">
         <v>0</v>
       </c>
       <c r="J171" s="8">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6934,7 +6998,7 @@
       <c r="C172" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D172" s="6" t="s">
         <v>305</v>
       </c>
       <c r="E172" s="1" t="s">
@@ -6960,7 +7024,7 @@
       <c r="C173" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D173" s="6" t="s">
         <v>172</v>
       </c>
       <c r="E173" s="1" t="s">
@@ -6986,7 +7050,7 @@
       <c r="C174" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D174" s="6" t="s">
         <v>171</v>
       </c>
       <c r="E174" s="1" t="s">
@@ -7012,7 +7076,7 @@
       <c r="C175" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D175" s="6" t="s">
         <v>169</v>
       </c>
       <c r="E175" s="1" t="s">
@@ -7031,15 +7095,17 @@
       </c>
     </row>
     <row r="176" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="8"/>
+      <c r="A176" s="8">
+        <v>2019</v>
+      </c>
       <c r="B176" s="8" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="D176" s="8" t="s">
-        <v>168</v>
+        <v>444</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="E176" s="8" t="s">
         <v>412</v>
@@ -7051,13 +7117,13 @@
         <v>0</v>
       </c>
       <c r="H176" s="9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I176" s="9">
         <v>0</v>
       </c>
       <c r="J176" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7068,7 +7134,7 @@
       <c r="C177" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D177" s="6" t="s">
         <v>167</v>
       </c>
       <c r="E177" s="1" t="s">
@@ -7094,7 +7160,7 @@
       <c r="C178" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D178" s="6" t="s">
         <v>166</v>
       </c>
       <c r="E178" s="1" t="s">
@@ -7120,7 +7186,7 @@
       <c r="C179" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D179" s="6" t="s">
         <v>306</v>
       </c>
       <c r="E179" s="6" t="s">
@@ -7146,7 +7212,7 @@
       <c r="C180" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D180" s="6" t="s">
         <v>165</v>
       </c>
       <c r="E180" s="1" t="s">
@@ -7172,7 +7238,7 @@
       <c r="C181" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D181" s="6" t="s">
         <v>307</v>
       </c>
       <c r="E181" s="1" t="s">
@@ -7198,7 +7264,7 @@
       <c r="C182" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D182" s="6" t="s">
         <v>164</v>
       </c>
       <c r="E182" s="1" t="s">
@@ -7217,18 +7283,20 @@
       </c>
     </row>
     <row r="183" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="8"/>
+      <c r="A183" s="8">
+        <v>2019</v>
+      </c>
       <c r="B183" s="8" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="D183" s="8" t="s">
-        <v>163</v>
+        <v>462</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="F183" s="8">
         <v>0</v>
@@ -7237,13 +7305,13 @@
         <v>0</v>
       </c>
       <c r="H183" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I183" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J183" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7254,7 +7322,7 @@
       <c r="C184" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D184" s="6" t="s">
         <v>162</v>
       </c>
       <c r="E184" s="1" t="s">
@@ -7280,7 +7348,7 @@
       <c r="C185" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D185" s="6" t="s">
         <v>161</v>
       </c>
       <c r="E185" s="1" t="s">
@@ -7299,15 +7367,17 @@
       </c>
     </row>
     <row r="186" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="8"/>
+      <c r="A186" s="8">
+        <v>2019</v>
+      </c>
       <c r="B186" s="8" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D186" s="8" t="s">
-        <v>160</v>
+        <v>464</v>
+      </c>
+      <c r="D186" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="E186" s="8" t="s">
         <v>412</v>
@@ -7319,13 +7389,13 @@
         <v>0</v>
       </c>
       <c r="H186" s="9">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="I186" s="9">
         <v>0</v>
       </c>
       <c r="J186" s="8">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7336,7 +7406,7 @@
       <c r="C187" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D187" s="6" t="s">
         <v>159</v>
       </c>
       <c r="E187" s="1" t="s">
@@ -7362,7 +7432,7 @@
       <c r="C188" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D188" s="6" t="s">
         <v>308</v>
       </c>
       <c r="E188" s="1" t="s">
@@ -7388,7 +7458,7 @@
       <c r="C189" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D189" s="6" t="s">
         <v>157</v>
       </c>
       <c r="E189" s="1" t="s">
@@ -7407,15 +7477,17 @@
       </c>
     </row>
     <row r="190" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="8"/>
+      <c r="A190" s="8">
+        <v>2019</v>
+      </c>
       <c r="B190" s="8" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>156</v>
+        <v>439</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="E190" s="8" t="s">
         <v>412</v>
@@ -7427,13 +7499,13 @@
         <v>0</v>
       </c>
       <c r="H190" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I190" s="9">
         <v>0</v>
       </c>
       <c r="J190" s="8">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7444,7 +7516,7 @@
       <c r="C191" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D191" s="6" t="s">
         <v>309</v>
       </c>
       <c r="E191" s="1" t="s">
@@ -7463,18 +7535,20 @@
       </c>
     </row>
     <row r="192" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="8"/>
+      <c r="A192" s="8">
+        <v>2019</v>
+      </c>
       <c r="B192" s="8" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>153</v>
+        <v>433</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>412</v>
+        <v>477</v>
       </c>
       <c r="F192" s="8">
         <v>0</v>
@@ -7483,13 +7557,13 @@
         <v>0</v>
       </c>
       <c r="H192" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I192" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J192" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7500,7 +7574,7 @@
       <c r="C193" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D193" s="6" t="s">
         <v>152</v>
       </c>
       <c r="E193" s="1" t="s">
@@ -7519,18 +7593,20 @@
       </c>
     </row>
     <row r="194" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="8"/>
+      <c r="A194" s="8">
+        <v>2019</v>
+      </c>
       <c r="B194" s="8" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>151</v>
+        <v>470</v>
+      </c>
+      <c r="D194" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>492</v>
+        <v>412</v>
       </c>
       <c r="F194" s="8">
         <v>0</v>
@@ -7539,13 +7615,13 @@
         <v>0</v>
       </c>
       <c r="H194" s="9">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I194" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J194" s="8">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7556,7 +7632,7 @@
       <c r="C195" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D195" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E195" s="1" t="s">
@@ -7582,7 +7658,7 @@
       <c r="C196" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D196" s="6" t="s">
         <v>149</v>
       </c>
       <c r="E196" s="1" t="s">
@@ -7608,7 +7684,7 @@
       <c r="C197" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D197" s="6" t="s">
         <v>147</v>
       </c>
       <c r="E197" s="1" t="s">
@@ -7627,15 +7703,17 @@
       </c>
     </row>
     <row r="198" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="8"/>
+      <c r="A198" s="8">
+        <v>2019</v>
+      </c>
       <c r="B198" s="8" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>146</v>
+        <v>425</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="E198" s="8" t="s">
         <v>412</v>
@@ -7647,28 +7725,30 @@
         <v>0</v>
       </c>
       <c r="H198" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I198" s="9">
         <v>0</v>
       </c>
       <c r="J198" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="8"/>
+      <c r="A199" s="8">
+        <v>2019</v>
+      </c>
       <c r="B199" s="8" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>144</v>
+        <v>438</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>412</v>
+        <v>471</v>
       </c>
       <c r="F199" s="8">
         <v>0</v>
@@ -7677,13 +7757,13 @@
         <v>0</v>
       </c>
       <c r="H199" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I199" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J199" s="8">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7694,7 +7774,7 @@
       <c r="C200" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D200" s="6" t="s">
         <v>143</v>
       </c>
       <c r="E200" s="1" t="s">
@@ -7720,7 +7800,7 @@
       <c r="C201" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D201" s="6" t="s">
         <v>142</v>
       </c>
       <c r="E201" s="1" t="s">
@@ -7739,15 +7819,17 @@
       </c>
     </row>
     <row r="202" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="8"/>
+      <c r="A202" s="8">
+        <v>2019</v>
+      </c>
       <c r="B202" s="8" t="s">
         <v>448</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="D202" s="8" t="s">
-        <v>141</v>
+        <v>472</v>
+      </c>
+      <c r="D202" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="E202" s="8" t="s">
         <v>412</v>
@@ -7759,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="H202" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I202" s="9">
         <v>0</v>
@@ -7776,7 +7858,7 @@
       <c r="C203" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D203" s="6" t="s">
         <v>140</v>
       </c>
       <c r="E203" s="1" t="s">
@@ -7802,7 +7884,7 @@
       <c r="C204" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="D204" s="6" t="s">
         <v>139</v>
       </c>
       <c r="E204" s="1" t="s">
@@ -7821,15 +7903,17 @@
       </c>
     </row>
     <row r="205" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="8"/>
+      <c r="A205" s="8">
+        <v>2019</v>
+      </c>
       <c r="B205" s="8" t="s">
         <v>424</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>310</v>
+        <v>459</v>
+      </c>
+      <c r="D205" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="E205" s="8" t="s">
         <v>412</v>
@@ -7841,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="H205" s="9">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I205" s="9">
         <v>0</v>
@@ -7858,7 +7942,7 @@
       <c r="C206" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="D206" s="6" t="s">
         <v>131</v>
       </c>
       <c r="E206" s="1" t="s">
@@ -7884,7 +7968,7 @@
       <c r="C207" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D207" s="6" t="s">
         <v>137</v>
       </c>
       <c r="E207" s="1" t="s">
@@ -7903,15 +7987,17 @@
       </c>
     </row>
     <row r="208" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="8"/>
+      <c r="A208" s="8">
+        <v>2019</v>
+      </c>
       <c r="B208" s="8" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="D208" s="8" t="s">
-        <v>130</v>
+        <v>429</v>
+      </c>
+      <c r="D208" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="E208" s="8" t="s">
         <v>412</v>
@@ -7923,13 +8009,13 @@
         <v>0</v>
       </c>
       <c r="H208" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I208" s="9">
         <v>0</v>
       </c>
       <c r="J208" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7940,7 +8026,7 @@
       <c r="C209" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="D209" s="6" t="s">
         <v>136</v>
       </c>
       <c r="E209" s="1" t="s">
@@ -7966,7 +8052,7 @@
       <c r="C210" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D210" s="6" t="s">
         <v>311</v>
       </c>
       <c r="E210" s="1" t="s">
@@ -7992,7 +8078,7 @@
       <c r="C211" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D211" s="6" t="s">
         <v>312</v>
       </c>
       <c r="E211" s="1" t="s">
@@ -8018,7 +8104,7 @@
       <c r="C212" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="D212" s="6" t="s">
         <v>135</v>
       </c>
       <c r="E212" s="1" t="s">
@@ -8037,15 +8123,17 @@
       </c>
     </row>
     <row r="213" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="8"/>
+      <c r="A213" s="8">
+        <v>2019</v>
+      </c>
       <c r="B213" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="D213" s="8" t="s">
-        <v>134</v>
+        <v>429</v>
+      </c>
+      <c r="D213" s="10" t="s">
+        <v>327</v>
       </c>
       <c r="E213" s="8" t="s">
         <v>412</v>
@@ -8057,13 +8145,13 @@
         <v>0</v>
       </c>
       <c r="H213" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I213" s="9">
         <v>0</v>
       </c>
       <c r="J213" s="8">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8074,7 +8162,7 @@
       <c r="C214" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="D214" s="6" t="s">
         <v>313</v>
       </c>
       <c r="E214" s="1" t="s">
@@ -8100,7 +8188,7 @@
       <c r="C215" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="D215" s="6" t="s">
         <v>133</v>
       </c>
       <c r="E215" s="1" t="s">
@@ -8126,7 +8214,7 @@
       <c r="C216" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="D216" s="6" t="s">
         <v>132</v>
       </c>
       <c r="E216" s="1" t="s">
@@ -8152,7 +8240,7 @@
       <c r="C217" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="D217" s="6" t="s">
         <v>128</v>
       </c>
       <c r="E217" s="1" t="s">
@@ -8178,7 +8266,7 @@
       <c r="C218" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="D218" s="6" t="s">
         <v>127</v>
       </c>
       <c r="E218" s="1" t="s">
@@ -8204,7 +8292,7 @@
       <c r="C219" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="D219" s="6" t="s">
         <v>125</v>
       </c>
       <c r="E219" s="1" t="s">
@@ -8230,7 +8318,7 @@
       <c r="C220" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="D220" s="6" t="s">
         <v>124</v>
       </c>
       <c r="E220" s="1" t="s">
@@ -8256,7 +8344,7 @@
       <c r="C221" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="D221" s="6" t="s">
         <v>123</v>
       </c>
       <c r="E221" s="1" t="s">
@@ -8282,7 +8370,7 @@
       <c r="C222" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="D222" s="6" t="s">
         <v>122</v>
       </c>
       <c r="E222" s="1" t="s">
@@ -8301,15 +8389,17 @@
       </c>
     </row>
     <row r="223" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="8"/>
+      <c r="A223" s="8">
+        <v>2019</v>
+      </c>
       <c r="B223" s="8" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="D223" s="8" t="s">
-        <v>117</v>
+        <v>440</v>
+      </c>
+      <c r="D223" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="E223" s="8" t="s">
         <v>412</v>
@@ -8321,13 +8411,13 @@
         <v>0</v>
       </c>
       <c r="H223" s="9">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="I223" s="9">
         <v>0</v>
       </c>
       <c r="J223" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8338,7 +8428,7 @@
       <c r="C224" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="D224" s="6" t="s">
         <v>120</v>
       </c>
       <c r="E224" s="1" t="s">
@@ -8364,7 +8454,7 @@
       <c r="C225" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="D225" s="6" t="s">
         <v>119</v>
       </c>
       <c r="E225" s="1" t="s">
@@ -8390,7 +8480,7 @@
       <c r="C226" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="D226" s="6" t="s">
         <v>118</v>
       </c>
       <c r="E226" s="1" t="s">
@@ -8416,7 +8506,7 @@
       <c r="C227" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="D227" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E227" s="1" t="s">
@@ -8442,7 +8532,7 @@
       <c r="C228" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="D228" s="6" t="s">
         <v>316</v>
       </c>
       <c r="E228" s="1" t="s">
@@ -8461,18 +8551,20 @@
       </c>
     </row>
     <row r="229" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="8"/>
+      <c r="A229" s="8">
+        <v>2019</v>
+      </c>
       <c r="B229" s="8" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="D229" s="8" t="s">
-        <v>115</v>
+        <v>485</v>
+      </c>
+      <c r="D229" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="E229" s="8" t="s">
-        <v>412</v>
+        <v>479</v>
       </c>
       <c r="F229" s="8">
         <v>0</v>
@@ -8481,13 +8573,13 @@
         <v>0</v>
       </c>
       <c r="H229" s="9">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="I229" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J229" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8498,7 +8590,7 @@
       <c r="C230" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="D230" s="6" t="s">
         <v>114</v>
       </c>
       <c r="E230" s="1" t="s">
@@ -8517,15 +8609,17 @@
       </c>
     </row>
     <row r="231" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="8"/>
+      <c r="A231" s="8">
+        <v>2019</v>
+      </c>
       <c r="B231" s="8" t="s">
         <v>421</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="D231" s="8" t="s">
-        <v>114</v>
+        <v>420</v>
+      </c>
+      <c r="D231" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="E231" s="8" t="s">
         <v>412</v>
@@ -8537,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="H231" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I231" s="9">
         <v>0</v>
@@ -8554,7 +8648,7 @@
       <c r="C232" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="D232" s="6" t="s">
         <v>317</v>
       </c>
       <c r="E232" s="1" t="s">
@@ -8580,7 +8674,7 @@
       <c r="C233" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="D233" s="6" t="s">
         <v>112</v>
       </c>
       <c r="E233" s="1" t="s">
@@ -8606,7 +8700,7 @@
       <c r="C234" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="D234" s="6" t="s">
         <v>318</v>
       </c>
       <c r="E234" s="1" t="s">
@@ -8632,7 +8726,7 @@
       <c r="C235" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="D235" s="6" t="s">
         <v>111</v>
       </c>
       <c r="E235" s="1" t="s">
@@ -8658,7 +8752,7 @@
       <c r="C236" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D236" s="1" t="s">
+      <c r="D236" s="6" t="s">
         <v>319</v>
       </c>
       <c r="E236" s="1" t="s">
@@ -8684,7 +8778,7 @@
       <c r="C237" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="D237" s="6" t="s">
         <v>320</v>
       </c>
       <c r="E237" s="1" t="s">
@@ -8710,7 +8804,7 @@
       <c r="C238" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="D238" s="6" t="s">
         <v>110</v>
       </c>
       <c r="E238" s="1" t="s">
@@ -8729,18 +8823,20 @@
       </c>
     </row>
     <row r="239" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="8"/>
+      <c r="A239" s="8">
+        <v>2019</v>
+      </c>
       <c r="B239" s="8" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="D239" s="8" t="s">
-        <v>109</v>
+        <v>463</v>
+      </c>
+      <c r="D239" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="E239" s="8" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="F239" s="8">
         <v>0</v>
@@ -8749,58 +8845,62 @@
         <v>0</v>
       </c>
       <c r="H239" s="9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I239" s="9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J239" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="D240" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E240" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="F240" s="8">
+        <v>0</v>
+      </c>
+      <c r="G240" s="8">
+        <v>0</v>
+      </c>
+      <c r="H240" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="8"/>
-      <c r="B240" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="C240" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="D240" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E240" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="F240" s="8">
-        <v>0</v>
-      </c>
-      <c r="G240" s="8">
-        <v>0</v>
-      </c>
-      <c r="H240" s="9">
-        <v>21</v>
-      </c>
       <c r="I240" s="9">
         <v>0</v>
       </c>
       <c r="J240" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="8"/>
+      <c r="A241" s="8">
+        <v>2019</v>
+      </c>
       <c r="B241" s="8" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="D241" s="8" t="s">
-        <v>107</v>
+        <v>428</v>
+      </c>
+      <c r="D241" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="E241" s="8" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="F241" s="8">
         <v>0</v>
@@ -8809,13 +8909,13 @@
         <v>0</v>
       </c>
       <c r="H241" s="9">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="I241" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J241" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8826,7 +8926,7 @@
       <c r="C242" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="D242" s="6" t="s">
         <v>321</v>
       </c>
       <c r="E242" s="1" t="s">
@@ -8852,7 +8952,7 @@
       <c r="C243" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D243" s="1" t="s">
+      <c r="D243" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E243" s="1" t="s">
@@ -8878,7 +8978,7 @@
       <c r="C244" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="D244" s="6" t="s">
         <v>322</v>
       </c>
       <c r="E244" s="1" t="s">
@@ -8897,18 +8997,20 @@
       </c>
     </row>
     <row r="245" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="8"/>
+      <c r="A245" s="8">
+        <v>2019</v>
+      </c>
       <c r="B245" s="8" t="s">
         <v>424</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="D245" s="8" t="s">
-        <v>105</v>
+        <v>459</v>
+      </c>
+      <c r="D245" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="E245" s="8" t="s">
-        <v>471</v>
+        <v>412</v>
       </c>
       <c r="F245" s="8">
         <v>0</v>
@@ -8917,10 +9019,10 @@
         <v>0</v>
       </c>
       <c r="H245" s="9">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="I245" s="9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J245" s="8">
         <v>1</v>
@@ -8934,7 +9036,7 @@
       <c r="C246" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="D246" s="6" t="s">
         <v>104</v>
       </c>
       <c r="E246" s="1" t="s">
@@ -8953,18 +9055,20 @@
       </c>
     </row>
     <row r="247" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="8"/>
+      <c r="A247" s="8">
+        <v>2019</v>
+      </c>
       <c r="B247" s="8" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="D247" s="8" t="s">
-        <v>103</v>
+        <v>425</v>
+      </c>
+      <c r="D247" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="E247" s="8" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="F247" s="8">
         <v>0</v>
@@ -8973,13 +9077,13 @@
         <v>0</v>
       </c>
       <c r="H247" s="9">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="I247" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J247" s="8">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8990,7 +9094,7 @@
       <c r="C248" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="D248" s="6" t="s">
         <v>100</v>
       </c>
       <c r="E248" s="1" t="s">
@@ -9009,15 +9113,17 @@
       </c>
     </row>
     <row r="249" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="8"/>
+      <c r="A249" s="8">
+        <v>2019</v>
+      </c>
       <c r="B249" s="8" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="D249" s="8" t="s">
-        <v>99</v>
+        <v>439</v>
+      </c>
+      <c r="D249" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="E249" s="8" t="s">
         <v>412</v>
@@ -9029,13 +9135,13 @@
         <v>0</v>
       </c>
       <c r="H249" s="9">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I249" s="9">
         <v>0</v>
       </c>
       <c r="J249" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9046,7 +9152,7 @@
       <c r="C250" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="D250" s="6" t="s">
         <v>323</v>
       </c>
       <c r="E250" s="1" t="s">
@@ -9072,7 +9178,7 @@
       <c r="C251" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D251" s="1" t="s">
+      <c r="D251" s="6" t="s">
         <v>97</v>
       </c>
       <c r="E251" s="1" t="s">
@@ -9098,7 +9204,7 @@
       <c r="C252" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D252" s="1" t="s">
+      <c r="D252" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E252" s="1" t="s">
@@ -9124,7 +9230,7 @@
       <c r="C253" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D253" s="1" t="s">
+      <c r="D253" s="6" t="s">
         <v>95</v>
       </c>
       <c r="E253" s="1" t="s">
@@ -9150,7 +9256,7 @@
       <c r="C254" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D254" s="1" t="s">
+      <c r="D254" s="6" t="s">
         <v>324</v>
       </c>
       <c r="E254" s="1" t="s">
@@ -9176,7 +9282,7 @@
       <c r="C255" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D255" s="1" t="s">
+      <c r="D255" s="6" t="s">
         <v>94</v>
       </c>
       <c r="E255" s="1" t="s">
@@ -9195,15 +9301,17 @@
       </c>
     </row>
     <row r="256" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="8"/>
+      <c r="A256" s="8">
+        <v>2019</v>
+      </c>
       <c r="B256" s="8" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="D256" s="8" t="s">
-        <v>93</v>
+        <v>458</v>
+      </c>
+      <c r="D256" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="E256" s="8" t="s">
         <v>412</v>
@@ -9215,25 +9323,27 @@
         <v>0</v>
       </c>
       <c r="H256" s="9">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="I256" s="9">
         <v>0</v>
       </c>
       <c r="J256" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="8"/>
+      <c r="A257" s="8">
+        <v>2019</v>
+      </c>
       <c r="B257" s="8" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="D257" s="8" t="s">
-        <v>325</v>
+        <v>485</v>
+      </c>
+      <c r="D257" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="E257" s="8" t="s">
         <v>412</v>
@@ -9245,13 +9355,13 @@
         <v>0</v>
       </c>
       <c r="H257" s="9">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="I257" s="9">
         <v>0</v>
       </c>
       <c r="J257" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
@@ -9262,7 +9372,7 @@
       <c r="C258" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D258" s="1" t="s">
+      <c r="D258" s="6" t="s">
         <v>326</v>
       </c>
       <c r="E258" s="1" t="s">
@@ -9281,15 +9391,17 @@
       </c>
     </row>
     <row r="259" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="8"/>
+      <c r="A259" s="8">
+        <v>2019</v>
+      </c>
       <c r="B259" s="8" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="D259" s="8" t="s">
-        <v>92</v>
+        <v>444</v>
+      </c>
+      <c r="D259" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="E259" s="8" t="s">
         <v>412</v>
@@ -9301,13 +9413,13 @@
         <v>0</v>
       </c>
       <c r="H259" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I259" s="9">
         <v>0</v>
       </c>
       <c r="J259" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9318,7 +9430,7 @@
       <c r="C260" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D260" s="1" t="s">
+      <c r="D260" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E260" s="1" t="s">
@@ -9344,7 +9456,7 @@
       <c r="C261" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="D261" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E261" s="1" t="s">
@@ -9363,15 +9475,17 @@
       </c>
     </row>
     <row r="262" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="8"/>
+      <c r="A262" s="8">
+        <v>2019</v>
+      </c>
       <c r="B262" s="8" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="D262" s="8" t="s">
-        <v>327</v>
+        <v>425</v>
+      </c>
+      <c r="D262" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="E262" s="8" t="s">
         <v>412</v>
@@ -9383,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="H262" s="9">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I262" s="9">
         <v>0</v>
       </c>
       <c r="J262" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9400,7 +9514,7 @@
       <c r="C263" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="D263" s="1" t="s">
+      <c r="D263" s="6" t="s">
         <v>329</v>
       </c>
       <c r="E263" s="1" t="s">
@@ -9419,15 +9533,17 @@
       </c>
     </row>
     <row r="264" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="8"/>
+      <c r="A264" s="8">
+        <v>2019</v>
+      </c>
       <c r="B264" s="8" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="D264" s="8" t="s">
-        <v>86</v>
+        <v>462</v>
+      </c>
+      <c r="D264" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="E264" s="8" t="s">
         <v>412</v>
@@ -9439,28 +9555,30 @@
         <v>0</v>
       </c>
       <c r="H264" s="9">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="I264" s="9">
         <v>0</v>
       </c>
       <c r="J264" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A265" s="8"/>
+      <c r="A265" s="8">
+        <v>2019</v>
+      </c>
       <c r="B265" s="8" t="s">
         <v>451</v>
       </c>
       <c r="C265" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="D265" s="8" t="s">
-        <v>79</v>
+      <c r="D265" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="E265" s="8" t="s">
-        <v>479</v>
+        <v>412</v>
       </c>
       <c r="F265" s="8">
         <v>0</v>
@@ -9469,10 +9587,10 @@
         <v>0</v>
       </c>
       <c r="H265" s="9">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I265" s="9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J265" s="8">
         <v>5</v>
@@ -9486,7 +9604,7 @@
       <c r="C266" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D266" s="1" t="s">
+      <c r="D266" s="6" t="s">
         <v>330</v>
       </c>
       <c r="E266" s="1" t="s">
@@ -9505,18 +9623,20 @@
       </c>
     </row>
     <row r="267" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="8"/>
+      <c r="A267" s="8">
+        <v>2019</v>
+      </c>
       <c r="B267" s="8" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="D267" s="8" t="s">
-        <v>83</v>
+        <v>414</v>
+      </c>
+      <c r="D267" s="10" t="s">
+        <v>346</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="F267" s="8">
         <v>0</v>
@@ -9525,13 +9645,13 @@
         <v>0</v>
       </c>
       <c r="H267" s="9">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="I267" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J267" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9542,7 +9662,7 @@
       <c r="C268" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D268" s="1" t="s">
+      <c r="D268" s="6" t="s">
         <v>82</v>
       </c>
       <c r="E268" s="1" t="s">
@@ -9568,7 +9688,7 @@
       <c r="C269" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D269" s="1" t="s">
+      <c r="D269" s="6" t="s">
         <v>81</v>
       </c>
       <c r="E269" s="1" t="s">
@@ -9594,7 +9714,7 @@
       <c r="C270" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D270" s="1" t="s">
+      <c r="D270" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E270" s="1" t="s">
@@ -9620,7 +9740,7 @@
       <c r="C271" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D271" s="1" t="s">
+      <c r="D271" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E271" s="1" t="s">
@@ -9646,7 +9766,7 @@
       <c r="C272" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="D272" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E272" s="1" t="s">
@@ -9672,7 +9792,7 @@
       <c r="C273" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D273" s="1" t="s">
+      <c r="D273" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E273" s="1" t="s">
@@ -9698,7 +9818,7 @@
       <c r="C274" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D274" s="1" t="s">
+      <c r="D274" s="6" t="s">
         <v>75</v>
       </c>
       <c r="E274" s="1" t="s">
@@ -9724,7 +9844,7 @@
       <c r="C275" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D275" s="1" t="s">
+      <c r="D275" s="6" t="s">
         <v>73</v>
       </c>
       <c r="E275" s="1" t="s">
@@ -9750,7 +9870,7 @@
       <c r="C276" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D276" s="1" t="s">
+      <c r="D276" s="6" t="s">
         <v>331</v>
       </c>
       <c r="E276" s="1" t="s">
@@ -9776,7 +9896,7 @@
       <c r="C277" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D277" s="1" t="s">
+      <c r="D277" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E277" s="1" t="s">
@@ -9802,7 +9922,7 @@
       <c r="C278" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D278" s="1" t="s">
+      <c r="D278" s="6" t="s">
         <v>71</v>
       </c>
       <c r="E278" s="1" t="s">
@@ -9821,15 +9941,17 @@
       </c>
     </row>
     <row r="279" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="8"/>
+      <c r="A279" s="8">
+        <v>2019</v>
+      </c>
       <c r="B279" s="8" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="D279" s="8" t="s">
-        <v>70</v>
+        <v>462</v>
+      </c>
+      <c r="D279" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="E279" s="8" t="s">
         <v>412</v>
@@ -9847,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="J279" s="8">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9858,7 +9980,7 @@
       <c r="C280" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D280" s="1" t="s">
+      <c r="D280" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E280" s="1" t="s">
@@ -9884,7 +10006,7 @@
       <c r="C281" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D281" s="1" t="s">
+      <c r="D281" s="6" t="s">
         <v>68</v>
       </c>
       <c r="E281" s="1" t="s">
@@ -9910,7 +10032,7 @@
       <c r="C282" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D282" s="1" t="s">
+      <c r="D282" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E282" s="1" t="s">
@@ -9936,7 +10058,7 @@
       <c r="C283" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D283" s="1" t="s">
+      <c r="D283" s="6" t="s">
         <v>66</v>
       </c>
       <c r="E283" s="1" t="s">
@@ -9962,7 +10084,7 @@
       <c r="C284" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D284" s="1" t="s">
+      <c r="D284" s="6" t="s">
         <v>65</v>
       </c>
       <c r="E284" s="1" t="s">
@@ -9988,7 +10110,7 @@
       <c r="C285" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D285" s="1" t="s">
+      <c r="D285" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E285" s="1" t="s">
@@ -10014,7 +10136,7 @@
       <c r="C286" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="D286" s="1" t="s">
+      <c r="D286" s="6" t="s">
         <v>333</v>
       </c>
       <c r="E286" s="1" t="s">
@@ -10040,7 +10162,7 @@
       <c r="C287" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D287" s="1" t="s">
+      <c r="D287" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E287" s="1" t="s">
@@ -10066,7 +10188,7 @@
       <c r="C288" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D288" s="1" t="s">
+      <c r="D288" s="6" t="s">
         <v>62</v>
       </c>
       <c r="E288" s="1" t="s">
@@ -10087,16 +10209,16 @@
     <row r="289" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="8"/>
       <c r="B289" s="8" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C289" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="D289" s="8" t="s">
-        <v>61</v>
+        <v>423</v>
+      </c>
+      <c r="D289" s="10" t="s">
+        <v>275</v>
       </c>
       <c r="E289" s="8" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="F289" s="8">
         <v>0</v>
@@ -10105,13 +10227,13 @@
         <v>0</v>
       </c>
       <c r="H289" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I289" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J289" s="8">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10122,7 +10244,7 @@
       <c r="C290" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D290" s="1" t="s">
+      <c r="D290" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E290" s="1" t="s">
@@ -10148,8 +10270,8 @@
       <c r="C291" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="D291" s="8" t="s">
-        <v>59</v>
+      <c r="D291" s="10" t="s">
+        <v>271</v>
       </c>
       <c r="E291" s="8" t="s">
         <v>412</v>
@@ -10161,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="H291" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I291" s="9">
         <v>0</v>
@@ -10178,7 +10300,7 @@
       <c r="C292" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D292" s="1" t="s">
+      <c r="D292" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E292" s="1" t="s">
@@ -10204,7 +10326,7 @@
       <c r="C293" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D293" s="1" t="s">
+      <c r="D293" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E293" s="1" t="s">
@@ -10230,7 +10352,7 @@
       <c r="C294" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D294" s="1" t="s">
+      <c r="D294" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E294" s="1" t="s">
@@ -10256,7 +10378,7 @@
       <c r="C295" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D295" s="1" t="s">
+      <c r="D295" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E295" s="1" t="s">
@@ -10277,16 +10399,16 @@
     <row r="296" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="8"/>
       <c r="B296" s="8" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C296" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="D296" s="8" t="s">
-        <v>53</v>
+        <v>435</v>
+      </c>
+      <c r="D296" s="10" t="s">
+        <v>269</v>
       </c>
       <c r="E296" s="8" t="s">
-        <v>460</v>
+        <v>412</v>
       </c>
       <c r="F296" s="8">
         <v>0</v>
@@ -10295,13 +10417,13 @@
         <v>0</v>
       </c>
       <c r="H296" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I296" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J296" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="297" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10312,7 +10434,7 @@
       <c r="C297" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D297" s="1" t="s">
+      <c r="D297" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E297" s="1" t="s">
@@ -10338,7 +10460,7 @@
       <c r="C298" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D298" s="1" t="s">
+      <c r="D298" s="6" t="s">
         <v>336</v>
       </c>
       <c r="E298" s="1" t="s">
@@ -10364,7 +10486,7 @@
       <c r="C299" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D299" s="1" t="s">
+      <c r="D299" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E299" s="1" t="s">
@@ -10390,7 +10512,7 @@
       <c r="C300" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D300" s="1" t="s">
+      <c r="D300" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E300" s="1" t="s">
@@ -10416,7 +10538,7 @@
       <c r="C301" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D301" s="1" t="s">
+      <c r="D301" s="6" t="s">
         <v>49</v>
       </c>
       <c r="E301" s="1" t="s">
@@ -10442,7 +10564,7 @@
       <c r="C302" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D302" s="1" t="s">
+      <c r="D302" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E302" s="1" t="s">
@@ -10468,7 +10590,7 @@
       <c r="C303" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D303" s="1" t="s">
+      <c r="D303" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E303" s="1" t="s">
@@ -10494,7 +10616,7 @@
       <c r="C304" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D304" s="1" t="s">
+      <c r="D304" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E304" s="1" t="s">
@@ -10520,7 +10642,7 @@
       <c r="C305" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D305" s="1" t="s">
+      <c r="D305" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E305" s="1" t="s">
@@ -10546,7 +10668,7 @@
       <c r="C306" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D306" s="1" t="s">
+      <c r="D306" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E306" s="1" t="s">
@@ -10572,7 +10694,7 @@
       <c r="C307" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D307" s="1" t="s">
+      <c r="D307" s="6" t="s">
         <v>337</v>
       </c>
       <c r="E307" s="1" t="s">
@@ -10598,7 +10720,7 @@
       <c r="C308" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D308" s="1" t="s">
+      <c r="D308" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E308" s="1" t="s">
@@ -10624,7 +10746,7 @@
       <c r="C309" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D309" s="1" t="s">
+      <c r="D309" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E309" s="1" t="s">
@@ -10645,13 +10767,13 @@
     <row r="310" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="8"/>
       <c r="B310" s="8" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="D310" s="8" t="s">
-        <v>41</v>
+        <v>440</v>
+      </c>
+      <c r="D310" s="10" t="s">
+        <v>264</v>
       </c>
       <c r="E310" s="8" t="s">
         <v>412</v>
@@ -10663,13 +10785,13 @@
         <v>0</v>
       </c>
       <c r="H310" s="9">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="I310" s="9">
         <v>0</v>
       </c>
       <c r="J310" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="311" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10680,7 +10802,7 @@
       <c r="C311" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D311" s="1" t="s">
+      <c r="D311" s="6" t="s">
         <v>338</v>
       </c>
       <c r="E311" s="1" t="s">
@@ -10701,16 +10823,16 @@
     <row r="312" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="8"/>
       <c r="B312" s="8" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="C312" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="D312" s="8" t="s">
-        <v>40</v>
+        <v>455</v>
+      </c>
+      <c r="D312" s="10" t="s">
+        <v>240</v>
       </c>
       <c r="E312" s="8" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="F312" s="8">
         <v>0</v>
@@ -10719,13 +10841,13 @@
         <v>0</v>
       </c>
       <c r="H312" s="9">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="I312" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J312" s="8">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10736,7 +10858,7 @@
       <c r="C313" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D313" s="1" t="s">
+      <c r="D313" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E313" s="1" t="s">
@@ -10762,7 +10884,7 @@
       <c r="C314" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D314" s="1" t="s">
+      <c r="D314" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E314" s="1" t="s">
@@ -10783,13 +10905,13 @@
     <row r="315" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="8"/>
       <c r="B315" s="8" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C315" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="D315" s="8" t="s">
-        <v>37</v>
+        <v>423</v>
+      </c>
+      <c r="D315" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="E315" s="8" t="s">
         <v>412</v>
@@ -10801,13 +10923,13 @@
         <v>0</v>
       </c>
       <c r="H315" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I315" s="9">
         <v>0</v>
       </c>
       <c r="J315" s="8">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10818,7 +10940,7 @@
       <c r="C316" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D316" s="1" t="s">
+      <c r="D316" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E316" s="1" t="s">
@@ -10842,13 +10964,13 @@
         <v>448</v>
       </c>
       <c r="C317" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="D317" s="8" t="s">
-        <v>35</v>
+        <v>464</v>
+      </c>
+      <c r="D317" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="E317" s="8" t="s">
-        <v>412</v>
+        <v>479</v>
       </c>
       <c r="F317" s="8">
         <v>0</v>
@@ -10857,10 +10979,10 @@
         <v>0</v>
       </c>
       <c r="H317" s="9">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="I317" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J317" s="8">
         <v>7</v>
@@ -10869,13 +10991,13 @@
     <row r="318" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="8"/>
       <c r="B318" s="8" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C318" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="D318" s="8" t="s">
-        <v>34</v>
+        <v>485</v>
+      </c>
+      <c r="D318" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="E318" s="8" t="s">
         <v>412</v>
@@ -10887,25 +11009,25 @@
         <v>0</v>
       </c>
       <c r="H318" s="9">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="I318" s="9">
         <v>0</v>
       </c>
       <c r="J318" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="319" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="8"/>
       <c r="B319" s="8" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="C319" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="D319" s="8" t="s">
-        <v>31</v>
+        <v>429</v>
+      </c>
+      <c r="D319" s="10" t="s">
+        <v>304</v>
       </c>
       <c r="E319" s="8" t="s">
         <v>412</v>
@@ -10917,13 +11039,13 @@
         <v>0</v>
       </c>
       <c r="H319" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I319" s="9">
         <v>0</v>
       </c>
       <c r="J319" s="8">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
@@ -10934,7 +11056,7 @@
       <c r="C320" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D320" s="1" t="s">
+      <c r="D320" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E320" s="1" t="s">
@@ -10960,7 +11082,7 @@
       <c r="C321" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D321" s="1" t="s">
+      <c r="D321" s="6" t="s">
         <v>339</v>
       </c>
       <c r="E321" s="1" t="s">
@@ -10986,7 +11108,7 @@
       <c r="C322" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D322" s="1" t="s">
+      <c r="D322" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E322" s="1" t="s">
@@ -11012,7 +11134,7 @@
       <c r="C323" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D323" s="1" t="s">
+      <c r="D323" s="6" t="s">
         <v>340</v>
       </c>
       <c r="E323" s="1" t="s">
@@ -11038,7 +11160,7 @@
       <c r="C324" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D324" s="1" t="s">
+      <c r="D324" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E324" s="1" t="s">
@@ -11064,7 +11186,7 @@
       <c r="C325" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D325" s="1" t="s">
+      <c r="D325" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E325" s="1" t="s">
@@ -11090,7 +11212,7 @@
       <c r="C326" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="D326" s="1" t="s">
+      <c r="D326" s="6" t="s">
         <v>341</v>
       </c>
       <c r="E326" s="1" t="s">
@@ -11116,7 +11238,7 @@
       <c r="C327" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D327" s="1" t="s">
+      <c r="D327" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E327" s="1" t="s">
@@ -11142,7 +11264,7 @@
       <c r="C328" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D328" s="1" t="s">
+      <c r="D328" s="6" t="s">
         <v>342</v>
       </c>
       <c r="E328" s="1" t="s">
@@ -11168,7 +11290,7 @@
       <c r="C329" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D329" s="1" t="s">
+      <c r="D329" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E329" s="1" t="s">
@@ -11189,13 +11311,13 @@
     <row r="330" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="8"/>
       <c r="B330" s="8" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="C330" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="D330" s="8" t="s">
-        <v>26</v>
+        <v>160</v>
+      </c>
+      <c r="D330" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="E330" s="8" t="s">
         <v>412</v>
@@ -11207,13 +11329,13 @@
         <v>0</v>
       </c>
       <c r="H330" s="9">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I330" s="9">
         <v>0</v>
       </c>
       <c r="J330" s="8">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11224,7 +11346,7 @@
       <c r="C331" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D331" s="1" t="s">
+      <c r="D331" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E331" s="1" t="s">
@@ -11250,7 +11372,7 @@
       <c r="C332" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D332" s="1" t="s">
+      <c r="D332" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E332" s="1" t="s">
@@ -11276,7 +11398,7 @@
       <c r="C333" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D333" s="1" t="s">
+      <c r="D333" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E333" s="1" t="s">
@@ -11302,7 +11424,7 @@
       <c r="C334" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D334" s="1" t="s">
+      <c r="D334" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E334" s="1" t="s">
@@ -11328,7 +11450,7 @@
       <c r="C335" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D335" s="1" t="s">
+      <c r="D335" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E335" s="1" t="s">
@@ -11354,7 +11476,7 @@
       <c r="C336" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D336" s="1" t="s">
+      <c r="D336" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E336" s="1" t="s">
@@ -11380,7 +11502,7 @@
       <c r="C337" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D337" s="1" t="s">
+      <c r="D337" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E337" s="1" t="s">
@@ -11406,7 +11528,7 @@
       <c r="C338" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D338" s="1" t="s">
+      <c r="D338" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E338" s="1" t="s">
@@ -11432,7 +11554,7 @@
       <c r="C339" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D339" s="1" t="s">
+      <c r="D339" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E339" s="1" t="s">
@@ -11453,13 +11575,13 @@
     <row r="340" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="8"/>
       <c r="B340" s="8" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="C340" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="D340" s="8" t="s">
-        <v>12</v>
+        <v>461</v>
+      </c>
+      <c r="D340" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="E340" s="8" t="s">
         <v>412</v>
@@ -11471,25 +11593,25 @@
         <v>0</v>
       </c>
       <c r="H340" s="9">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I340" s="9">
         <v>0</v>
       </c>
       <c r="J340" s="8">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="8"/>
       <c r="B341" s="8" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="C341" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="D341" s="8" t="s">
-        <v>11</v>
+        <v>423</v>
+      </c>
+      <c r="D341" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="E341" s="8" t="s">
         <v>412</v>
@@ -11501,13 +11623,13 @@
         <v>0</v>
       </c>
       <c r="H341" s="9">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="I341" s="9">
         <v>0</v>
       </c>
       <c r="J341" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11518,7 +11640,7 @@
       <c r="C342" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D342" s="1" t="s">
+      <c r="D342" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E342" s="1" t="s">
@@ -11544,7 +11666,7 @@
       <c r="C343" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D343" s="1" t="s">
+      <c r="D343" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E343" s="1" t="s">
@@ -11565,13 +11687,13 @@
     <row r="344" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="8"/>
       <c r="B344" s="8" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="C344" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="D344" s="8" t="s">
-        <v>7</v>
+        <v>423</v>
+      </c>
+      <c r="D344" s="10" t="s">
+        <v>325</v>
       </c>
       <c r="E344" s="8" t="s">
         <v>412</v>
@@ -11583,13 +11705,13 @@
         <v>0</v>
       </c>
       <c r="H344" s="9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I344" s="9">
         <v>0</v>
       </c>
       <c r="J344" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11600,7 +11722,7 @@
       <c r="C345" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D345" s="1" t="s">
+      <c r="D345" s="6" t="s">
         <v>344</v>
       </c>
       <c r="E345" s="1" t="s">
@@ -11621,16 +11743,16 @@
     <row r="346" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="8"/>
       <c r="B346" s="8" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="C346" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="D346" s="8" t="s">
-        <v>346</v>
+        <v>423</v>
+      </c>
+      <c r="D346" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="E346" s="8" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="F346" s="8">
         <v>0</v>
@@ -11639,13 +11761,13 @@
         <v>0</v>
       </c>
       <c r="H346" s="9">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="I346" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J346" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11656,7 +11778,7 @@
       <c r="C347" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="D347" s="1" t="s">
+      <c r="D347" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E347" s="1" t="s">
@@ -11682,7 +11804,7 @@
       <c r="C348" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D348" s="1" t="s">
+      <c r="D348" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E348" s="1" t="s">
@@ -11708,7 +11830,7 @@
       <c r="C349" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D349" s="1" t="s">
+      <c r="D349" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E349" s="1" t="s">
@@ -11734,7 +11856,7 @@
       <c r="C350" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D350" s="1" t="s">
+      <c r="D350" s="6" t="s">
         <v>347</v>
       </c>
       <c r="E350" s="1" t="s">
@@ -11760,7 +11882,7 @@
       <c r="C351" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D351" s="1" t="s">
+      <c r="D351" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E351" s="1" t="s">
@@ -11779,15 +11901,17 @@
       </c>
     </row>
     <row r="352" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="8"/>
+      <c r="A352" s="8">
+        <v>2019</v>
+      </c>
       <c r="B352" s="8" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="C352" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="D352" s="8" t="s">
-        <v>0</v>
+        <v>476</v>
+      </c>
+      <c r="D352" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E352" s="8" t="s">
         <v>412</v>
@@ -11799,13 +11923,13 @@
         <v>0</v>
       </c>
       <c r="H352" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I352" s="9">
         <v>0</v>
       </c>
       <c r="J352" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
